--- a/data/trans_media/IQ27-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ27-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,99; 38,07</t>
+          <t>32,14; 38,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,21; 36,41</t>
+          <t>29,98; 36,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,58; 39,52</t>
+          <t>32,54; 39,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,26; 36,86</t>
+          <t>28,57; 37,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,28; 38,03</t>
+          <t>32,0; 37,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,96; 36,5</t>
+          <t>29,94; 36,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,53; 35,23</t>
+          <t>28,19; 35,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,48; 42,16</t>
+          <t>32,65; 42,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,73; 36,99</t>
+          <t>33,06; 37,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,09; 35,35</t>
+          <t>30,83; 35,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,51; 36,61</t>
+          <t>31,4; 36,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,68; 38,39</t>
+          <t>31,65; 38,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,67; 36,65</t>
+          <t>33,51; 36,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,72; 32,57</t>
+          <t>29,65; 32,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,06; 32,63</t>
+          <t>30,01; 32,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,21; 40,93</t>
+          <t>37,37; 41,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,14; 33,8</t>
+          <t>31,13; 33,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,68; 31,54</t>
+          <t>28,75; 31,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,82; 32,29</t>
+          <t>29,77; 32,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,28; 36,65</t>
+          <t>33,2; 36,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,9; 34,93</t>
+          <t>32,9; 34,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,72; 31,67</t>
+          <t>29,63; 31,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,29; 32,07</t>
+          <t>30,25; 32,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,9; 38,53</t>
+          <t>35,92; 38,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,59; 32,95</t>
+          <t>27,49; 32,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,38; 30,95</t>
+          <t>26,49; 31,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,19; 30,63</t>
+          <t>26,09; 30,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 37,87</t>
+          <t>32,95; 37,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,33; 30,13</t>
+          <t>26,37; 30,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,49; 29,64</t>
+          <t>25,46; 29,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,73; 29,12</t>
+          <t>25,0; 29,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,73; 34,93</t>
+          <t>30,47; 34,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,44; 30,59</t>
+          <t>27,32; 30,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,44; 29,58</t>
+          <t>26,41; 29,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,09; 29,0</t>
+          <t>26,1; 29,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,55; 35,87</t>
+          <t>32,48; 36,01</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,8; 35,24</t>
+          <t>32,7; 35,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,52 +1294,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,85; 31,96</t>
+          <t>29,89; 32,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,25</t>
+          <t>36,27; 39,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,66; 32,73</t>
+          <t>30,6; 32,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,77; 30,89</t>
+          <t>28,84; 31,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,15; 31,18</t>
+          <t>29,06; 31,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,3; 36,07</t>
+          <t>33,3; 36,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,01; 33,61</t>
+          <t>32,11; 33,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,5; 31,06</t>
+          <t>29,48; 31,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,77; 31,3</t>
+          <t>29,79; 31,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,14; 37,27</t>
+          <t>35,24; 37,27</t>
         </is>
       </c>
     </row>
